--- a/src/demos/zdemo_excel15#7.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#7.w3mi.data.xlsx
@@ -386,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B1:I30"/>
+  <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,10 +394,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:9">
       <c r=""/>
     </row>
-    <row r="4" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>10</v>
       </c>
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:9">
       <c r="B6">
         <v>20</v>
       </c>
@@ -475,7 +475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>30</v>
       </c>
@@ -501,7 +501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="8" spans="1:9">
       <c r="B8">
         <v>40</v>
       </c>
@@ -527,7 +527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>50</v>
       </c>
@@ -553,7 +553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="12" spans="1:9">
       <c r="B12">
         <v>10</v>
       </c>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="13" spans="1:9">
       <c r="B13">
         <v>20</v>
       </c>
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="14" spans="1:9">
       <c r="B14">
         <v>30</v>
       </c>
@@ -621,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="15" spans="1:9">
       <c r="B15">
         <v>40</v>
       </c>
@@ -638,7 +638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="16" spans="1:9">
       <c r="B16">
         <v>50</v>
       </c>
@@ -655,7 +655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="19" spans="1:9">
       <c r="B19">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="20" spans="1:9">
       <c r="B20">
         <v>20</v>
       </c>
@@ -688,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="21" spans="1:9">
       <c r="B21">
         <v>30</v>
       </c>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="22" spans="1:9">
       <c r="B22">
         <v>40</v>
       </c>
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="23" spans="1:9">
       <c r="B23">
         <v>50</v>
       </c>
@@ -721,7 +721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="26" spans="1:9">
       <c r="B26">
         <v>10</v>
       </c>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="27" spans="1:9">
       <c r="B27">
         <v>20</v>
       </c>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="28" spans="1:9">
       <c r="B28">
         <v>30</v>
       </c>
@@ -765,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>40</v>
       </c>
@@ -776,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="0.0000000000000000E+00">
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>50</v>
       </c>
@@ -977,8 +977,8 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="max" val=""/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
